--- a/biology/Botanique/Mitracarpus_hirtus/Mitracarpus_hirtus.xlsx
+++ b/biology/Botanique/Mitracarpus_hirtus/Mitracarpus_hirtus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mitracarplus hirtus est une espèce de plantes de la famille des Rubiaceae et du genre Mitracarpus.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sous le nom d’espèce Mitracarpus hirtus, selon Tropicos                                           (8 mars 2020)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sous le nom d’espèce Mitracarpus hirtus, selon Tropicos                                           (8 mars 2020) :
 variété Mitracarpus hirtus var. remotiflorus K. Schum.
-Sous le nom d’espèce Mitracarpus villosus, selon Tropicos                                           (8 mars 2020)[4] (Attention liste brute contenant possiblement des synonymes) :
+Sous le nom d’espèce Mitracarpus villosus, selon Tropicos                                           (8 mars 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Mitracarpus villosus var. glabrescens Griseb.
 variété Mitracarpus villosus var. glabrior Oerst.</t>
         </is>
@@ -545,9 +559,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[5] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « SPERMACOCE (longi-folia) caule flexuoſo ; floribus minimis ; foliis ovato-oblongis, acutis. (TABULA 21.)
 Hæc ſpecies plures caules emittit tetragonos, ramoſos, nodoſos, ſupra vicinas plantas ſparſos, &amp; incumbentes Folia lato-oblonga, acuta, glabra, integerrima, ſubpetiolata. Flores albi, numeroſi, congeſti, ſeſſiles, axillares.
 Habitat in campis cultis, prope comitatum de Gêne. »
